--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H2">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I2">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J2">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N2">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q2">
-        <v>0.1246666119657778</v>
+        <v>0.0003886208444444444</v>
       </c>
       <c r="R2">
-        <v>1.121999507692</v>
+        <v>0.0034975876</v>
       </c>
       <c r="S2">
-        <v>0.0001068133540025749</v>
+        <v>6.900251738497315E-07</v>
       </c>
       <c r="T2">
-        <v>0.0001068133540025749</v>
+        <v>6.900251738497314E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H3">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I3">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J3">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.534798</v>
       </c>
       <c r="O3">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P3">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q3">
-        <v>16.15594158163067</v>
+        <v>0.9197472659946666</v>
       </c>
       <c r="R3">
-        <v>145.403474234676</v>
+        <v>8.277725393952</v>
       </c>
       <c r="S3">
-        <v>0.01384228126675448</v>
+        <v>0.001633079584351816</v>
       </c>
       <c r="T3">
-        <v>0.01384228126675448</v>
+        <v>0.001633079584351816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H4">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I4">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J4">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N4">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q4">
-        <v>7.06675943700689</v>
+        <v>0.2622786998346666</v>
       </c>
       <c r="R4">
-        <v>63.600834933062</v>
+        <v>2.360508298512</v>
       </c>
       <c r="S4">
-        <v>0.006054742849699489</v>
+        <v>0.0004656953121215539</v>
       </c>
       <c r="T4">
-        <v>0.006054742849699487</v>
+        <v>0.0004656953121215538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N5">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q5">
-        <v>0.1845966013851111</v>
+        <v>0.01010795741944445</v>
       </c>
       <c r="R5">
-        <v>1.661369412466</v>
+        <v>0.09097161677500001</v>
       </c>
       <c r="S5">
-        <v>0.0001581608886333792</v>
+        <v>1.794742915961863E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001581608886333792</v>
+        <v>1.794742915961863E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I6">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J6">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>51.534798</v>
       </c>
       <c r="O6">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P6">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q6">
         <v>23.92245895768867</v>
@@ -818,10 +818,10 @@
         <v>215.302130619198</v>
       </c>
       <c r="S6">
-        <v>0.02049657111048391</v>
+        <v>0.04247610270311163</v>
       </c>
       <c r="T6">
-        <v>0.0204965711104839</v>
+        <v>0.04247610270311163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I7">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J7">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N7">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q7">
-        <v>10.46390652884456</v>
+        <v>6.821821237473666</v>
       </c>
       <c r="R7">
-        <v>94.17515875960102</v>
+        <v>61.396391137263</v>
       </c>
       <c r="S7">
-        <v>0.008965391251846516</v>
+        <v>0.01211265029308659</v>
       </c>
       <c r="T7">
-        <v>0.008965391251846514</v>
+        <v>0.01211265029308659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H8">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I8">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J8">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N8">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q8">
-        <v>5.922871603276</v>
+        <v>0.1746081312444444</v>
       </c>
       <c r="R8">
-        <v>53.305844429484</v>
+        <v>1.5714731812</v>
       </c>
       <c r="S8">
-        <v>0.005074668921348276</v>
+        <v>0.0003100297059200807</v>
       </c>
       <c r="T8">
-        <v>0.005074668921348276</v>
+        <v>0.0003100297059200806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H9">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I9">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J9">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>51.534798</v>
       </c>
       <c r="O9">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P9">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q9">
-        <v>767.5637134046279</v>
+        <v>413.2443064450027</v>
       </c>
       <c r="R9">
-        <v>6908.073420641652</v>
+        <v>3719.198758005025</v>
       </c>
       <c r="S9">
-        <v>0.6576424380725567</v>
+        <v>0.7337459595219639</v>
       </c>
       <c r="T9">
-        <v>0.6576424380725565</v>
+        <v>0.7337459595219638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H10">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I10">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J10">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N10">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q10">
-        <v>335.739522688886</v>
+        <v>117.8423501930827</v>
       </c>
       <c r="R10">
-        <v>3021.655704199974</v>
+        <v>1060.581151737744</v>
       </c>
       <c r="S10">
-        <v>0.2876589322846749</v>
+        <v>0.2092378454251111</v>
       </c>
       <c r="T10">
-        <v>0.2876589322846748</v>
+        <v>0.2092378454251111</v>
       </c>
     </row>
   </sheetData>
